--- a/data/interim/level_of_invasion_RBU.xlsx
+++ b/data/interim/level_of_invasion_RBU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
   </bookViews>
   <sheets>
     <sheet name="level_of_invasion_RBU" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="80">
   <si>
     <t>RBU</t>
   </si>
@@ -66,229 +66,199 @@
     <t>0.00139664804469274</t>
   </si>
   <si>
-    <t>median</t>
+    <t>Heracleum mantegazzianum</t>
+  </si>
+  <si>
+    <t>0.0991620111731844</t>
+  </si>
+  <si>
+    <t>weakly invaded</t>
+  </si>
+  <si>
+    <t>Crassula helmsii</t>
+  </si>
+  <si>
+    <t>0.00977653631284916</t>
+  </si>
+  <si>
+    <t>0.013268156424581</t>
+  </si>
+  <si>
+    <t>Lysichiton americanus</t>
+  </si>
+  <si>
+    <t>0.00209497206703911</t>
+  </si>
+  <si>
+    <t>0.00488826815642458</t>
+  </si>
+  <si>
+    <t>Elodea densa</t>
   </si>
   <si>
     <t>Houttuynia cordata</t>
   </si>
   <si>
-    <t>Crassula helmsii</t>
-  </si>
-  <si>
-    <t>0.00977653631284916</t>
-  </si>
-  <si>
-    <t>0.013268156424581</t>
-  </si>
-  <si>
-    <t>0.0111731843575419</t>
-  </si>
-  <si>
-    <t>Heracleum mantegazzianum</t>
+    <t>0.00768156424581006</t>
+  </si>
+  <si>
+    <t>Lagarosiphon major</t>
+  </si>
+  <si>
+    <t>Erythranthe guttata</t>
+  </si>
+  <si>
+    <t>0.00279329608938547</t>
+  </si>
+  <si>
+    <t>0.00349162011173184</t>
+  </si>
+  <si>
+    <t>Hydrocotyle ranunculoides</t>
+  </si>
+  <si>
+    <t>0.0118715083798883</t>
+  </si>
+  <si>
+    <t>Ludwigia grandiflora</t>
+  </si>
+  <si>
+    <t>0.0153631284916201</t>
   </si>
   <si>
     <t>0.0837988826815642</t>
   </si>
   <si>
-    <t>0.0670391061452514</t>
-  </si>
-  <si>
-    <t>0.0649441340782123</t>
-  </si>
-  <si>
-    <t>Elodea densa</t>
+    <t>Impatiens glandulifera</t>
+  </si>
+  <si>
+    <t>0.215782122905028</t>
+  </si>
+  <si>
+    <t>heavily invaded</t>
+  </si>
+  <si>
+    <t>0.160614525139665</t>
+  </si>
+  <si>
+    <t>Pontederia cordata</t>
+  </si>
+  <si>
+    <t>0.0146648044692737</t>
+  </si>
+  <si>
+    <t>Myriophyllum aquaticum</t>
+  </si>
+  <si>
+    <t>0.0160614525139665</t>
   </si>
   <si>
     <t>Koenigia polystachya</t>
   </si>
   <si>
+    <t>Procambarus virginalis</t>
+  </si>
+  <si>
+    <t>0.0181564245810056</t>
+  </si>
+  <si>
+    <t>0.00558659217877095</t>
+  </si>
+  <si>
     <t>Zizania latifolia</t>
   </si>
   <si>
-    <t>Erythranthe guttata</t>
-  </si>
-  <si>
-    <t>0.00279329608938547</t>
-  </si>
-  <si>
-    <t>0.00349162011173184</t>
-  </si>
-  <si>
-    <t>0.00418994413407821</t>
-  </si>
-  <si>
-    <t>Impatiens glandulifera</t>
-  </si>
-  <si>
-    <t>0.102653631284916</t>
-  </si>
-  <si>
-    <t>weakly invaded</t>
-  </si>
-  <si>
-    <t>0.00768156424581006</t>
-  </si>
-  <si>
-    <t>Ludwigia grandiflora</t>
-  </si>
-  <si>
-    <t>0.00558659217877095</t>
-  </si>
-  <si>
-    <t>0.0153631284916201</t>
-  </si>
-  <si>
-    <t>0.0202513966480447</t>
-  </si>
-  <si>
-    <t>Hydrocotyle ranunculoides</t>
-  </si>
-  <si>
-    <t>0.0181564245810056</t>
-  </si>
-  <si>
-    <t>0.0118715083798883</t>
-  </si>
-  <si>
-    <t>0.160614525139665</t>
-  </si>
-  <si>
-    <t>Lysichiton americanus</t>
-  </si>
-  <si>
-    <t>Lagarosiphon major</t>
-  </si>
-  <si>
-    <t>0.215782122905028</t>
-  </si>
-  <si>
-    <t>Myriophyllum aquaticum</t>
-  </si>
-  <si>
-    <t>0.0160614525139665</t>
-  </si>
-  <si>
     <t>Petasites japonicus</t>
   </si>
   <si>
-    <t>0.00209497206703911</t>
-  </si>
-  <si>
-    <t>0.00488826815642458</t>
-  </si>
-  <si>
-    <t>Pontederia cordata</t>
+    <t>Procambarus clarkii</t>
   </si>
   <si>
     <t>Saururus cernuus</t>
   </si>
   <si>
-    <t>Procambarus clarkii</t>
-  </si>
-  <si>
-    <t>Procambarus virginalis</t>
-  </si>
-  <si>
-    <t>0.0146648044692737</t>
-  </si>
-  <si>
-    <t>0.00628491620111732</t>
-  </si>
-  <si>
     <t>Mark - Marcq</t>
   </si>
   <si>
-    <t>0.0226244343891403</t>
+    <t>0.0271493212669683</t>
+  </si>
+  <si>
+    <t>0.00452488687782805</t>
+  </si>
+  <si>
+    <t>0.0135746606334842</t>
+  </si>
+  <si>
+    <t>0.00904977375565611</t>
   </si>
   <si>
     <t>0.0361990950226244</t>
   </si>
   <si>
-    <t>0.00452488687782805</t>
-  </si>
-  <si>
-    <t>0.0135746606334842</t>
-  </si>
-  <si>
     <t>0.0588235294117647</t>
   </si>
   <si>
-    <t>0.0452488687782805</t>
-  </si>
-  <si>
-    <t>0.00904977375565611</t>
-  </si>
-  <si>
     <t>0.16289592760181</t>
   </si>
   <si>
     <t>Zenne - Senne</t>
   </si>
   <si>
+    <t>0.00306278713629403</t>
+  </si>
+  <si>
+    <t>0.00995405819295559</t>
+  </si>
+  <si>
+    <t>0.00842266462480858</t>
+  </si>
+  <si>
+    <t>0.00153139356814701</t>
+  </si>
+  <si>
+    <t>0.0888208269525268</t>
+  </si>
+  <si>
+    <t>0.00918836140888208</t>
+  </si>
+  <si>
+    <t>0.00612557427258806</t>
+  </si>
+  <si>
     <t>0.00535987748851455</t>
   </si>
   <si>
-    <t>0.00153139356814701</t>
-  </si>
-  <si>
-    <t>0.00459418070444104</t>
-  </si>
-  <si>
-    <t>0.00918836140888208</t>
-  </si>
-  <si>
     <t>0.00689127105666156</t>
   </si>
   <si>
-    <t>0.00306278713629403</t>
+    <t>0.135528330781011</t>
+  </si>
+  <si>
+    <t>0.00382848392036753</t>
+  </si>
+  <si>
+    <t>Ludwigia peploides</t>
   </si>
   <si>
     <t>0.000765696784073507</t>
   </si>
   <si>
+    <t>0.14624808575804</t>
+  </si>
+  <si>
+    <t>0.0122511485451761</t>
+  </si>
+  <si>
     <t>0.00229709035222052</t>
   </si>
   <si>
+    <t>0.0107197549770291</t>
+  </si>
+  <si>
     <t>0.111791730474732</t>
   </si>
   <si>
-    <t>0.0803981623277182</t>
-  </si>
-  <si>
-    <t>0.00612557427258806</t>
-  </si>
-  <si>
-    <t>0.00842266462480858</t>
-  </si>
-  <si>
-    <t>0.0107197549770291</t>
-  </si>
-  <si>
-    <t>0.0666156202143951</t>
-  </si>
-  <si>
-    <t>0.00382848392036753</t>
-  </si>
-  <si>
-    <t>0.00995405819295559</t>
-  </si>
-  <si>
     <t>Procambarus acutus</t>
-  </si>
-  <si>
-    <t>0.0122511485451761</t>
-  </si>
-  <si>
-    <t>Ludwigia peploides</t>
-  </si>
-  <si>
-    <t>0.103369065849923</t>
-  </si>
-  <si>
-    <t>0.14624808575804</t>
-  </si>
-  <si>
-    <t>0.135528330781011</t>
   </si>
 </sst>
 </file>
@@ -1095,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1186,25 +1156,25 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>369</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="F4">
         <v>1432</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1212,22 +1182,22 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F5">
         <v>1432</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
@@ -1238,22 +1208,22 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D6">
+        <v>33</v>
+      </c>
+      <c r="E6">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>1432</v>
+      </c>
+      <c r="G6" t="s">
         <v>20</v>
-      </c>
-      <c r="E6">
-        <v>14</v>
-      </c>
-      <c r="F6">
-        <v>1432</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
@@ -1264,22 +1234,22 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1432</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -1290,22 +1260,22 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F8">
         <v>1432</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
@@ -1316,22 +1286,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9">
-        <v>268</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1432</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
@@ -1342,22 +1312,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10">
-        <v>307</v>
+        <v>11</v>
       </c>
       <c r="E10">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="F10">
         <v>1432</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
@@ -1368,22 +1338,22 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>280</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>1432</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
@@ -1394,22 +1364,22 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12">
         <v>1432</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="H12" t="s">
         <v>12</v>
@@ -1420,22 +1390,22 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F13">
         <v>1432</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
         <v>12</v>
@@ -1446,22 +1416,22 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14">
         <v>27</v>
       </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F14">
         <v>1432</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="H14" t="s">
         <v>12</v>
@@ -1472,22 +1442,22 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F15">
         <v>1432</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H15" t="s">
         <v>12</v>
@@ -1498,25 +1468,25 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>268</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="F16">
         <v>1432</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1524,25 +1494,25 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>1702</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>309</v>
       </c>
       <c r="F17">
         <v>1432</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H17" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1550,25 +1520,25 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>551</v>
+        <v>1277</v>
       </c>
       <c r="E18">
-        <v>147</v>
+        <v>230</v>
       </c>
       <c r="F18">
         <v>1432</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1576,22 +1546,22 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F19">
         <v>1432</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H19" t="s">
         <v>12</v>
@@ -1602,22 +1572,22 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E20">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F20">
         <v>1432</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H20" t="s">
         <v>12</v>
@@ -1628,22 +1598,22 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
       </c>
       <c r="D21">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E21">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F21">
         <v>1432</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H21" t="s">
         <v>12</v>
@@ -1654,22 +1624,22 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D22">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>1432</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="H22" t="s">
         <v>12</v>
@@ -1680,22 +1650,22 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>1432</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="H23" t="s">
         <v>12</v>
@@ -1706,22 +1676,22 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D24">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E24">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F24">
         <v>1432</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H24" t="s">
         <v>12</v>
@@ -1732,22 +1702,22 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D25">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E25">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1432</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="H25" t="s">
         <v>12</v>
@@ -1758,25 +1728,25 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D26">
-        <v>1277</v>
+        <v>74</v>
       </c>
       <c r="E26">
-        <v>230</v>
+        <v>26</v>
       </c>
       <c r="F26">
         <v>1432</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1784,22 +1754,22 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F27">
         <v>1432</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
         <v>12</v>
@@ -1810,10 +1780,10 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1836,25 +1806,25 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>1702</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>309</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>1432</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="H29" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1862,22 +1832,22 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1432</v>
       </c>
       <c r="G30" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H30" t="s">
         <v>12</v>
@@ -1888,22 +1858,22 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D31">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E31">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F31">
         <v>1432</v>
       </c>
       <c r="G31" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
         <v>12</v>
@@ -1914,22 +1884,22 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D32">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1432</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H32" t="s">
         <v>12</v>
@@ -1940,22 +1910,22 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D33">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1432</v>
+      </c>
+      <c r="G33" t="s">
         <v>14</v>
-      </c>
-      <c r="F33">
-        <v>1432</v>
-      </c>
-      <c r="G33" t="s">
-        <v>18</v>
       </c>
       <c r="H33" t="s">
         <v>12</v>
@@ -1963,25 +1933,25 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F34">
-        <v>1432</v>
+        <v>221</v>
       </c>
       <c r="G34" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H34" t="s">
         <v>12</v>
@@ -1989,25 +1959,25 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C35" t="s">
         <v>13</v>
       </c>
       <c r="D35">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E35">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1432</v>
+        <v>221</v>
       </c>
       <c r="G35" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H35" t="s">
         <v>12</v>
@@ -2015,25 +1985,25 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
       </c>
       <c r="D36">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="E36">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1432</v>
+        <v>221</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="H36" t="s">
         <v>12</v>
@@ -2041,25 +2011,25 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
         <v>13</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>1432</v>
+        <v>221</v>
       </c>
       <c r="G37" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="H37" t="s">
         <v>12</v>
@@ -2067,25 +2037,25 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F38">
-        <v>1432</v>
+        <v>221</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="H38" t="s">
         <v>12</v>
@@ -2093,25 +2063,25 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>1432</v>
+        <v>221</v>
       </c>
       <c r="G39" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="H39" t="s">
         <v>12</v>
@@ -2119,25 +2089,25 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F40">
-        <v>1432</v>
+        <v>221</v>
       </c>
       <c r="G40" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H40" t="s">
         <v>12</v>
@@ -2145,77 +2115,77 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D41">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E41">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F41">
-        <v>1432</v>
+        <v>221</v>
       </c>
       <c r="G41" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H41" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>227</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="F42">
-        <v>1432</v>
+        <v>221</v>
       </c>
       <c r="G42" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="H42" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D43">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>1432</v>
+        <v>221</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="H43" t="s">
         <v>12</v>
@@ -2223,25 +2193,25 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D44">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E44">
         <v>4</v>
       </c>
       <c r="F44">
-        <v>1432</v>
+        <v>1306</v>
       </c>
       <c r="G44" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="H44" t="s">
         <v>12</v>
@@ -2249,25 +2219,25 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
       </c>
       <c r="D45">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E45">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F45">
-        <v>1432</v>
+        <v>1306</v>
       </c>
       <c r="G45" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H45" t="s">
         <v>12</v>
@@ -2275,25 +2245,25 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D46">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F46">
-        <v>1432</v>
+        <v>1306</v>
       </c>
       <c r="G46" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="H46" t="s">
         <v>12</v>
@@ -2301,25 +2271,25 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
       </c>
       <c r="D47">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="E47">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F47">
-        <v>1432</v>
+        <v>1306</v>
       </c>
       <c r="G47" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H47" t="s">
         <v>12</v>
@@ -2327,51 +2297,51 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
       </c>
       <c r="D48">
-        <v>5</v>
+        <v>356</v>
       </c>
       <c r="E48">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="F48">
-        <v>221</v>
+        <v>1306</v>
       </c>
       <c r="G48" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H48" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D49">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E49">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F49">
-        <v>221</v>
+        <v>1306</v>
       </c>
       <c r="G49" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H49" t="s">
         <v>12</v>
@@ -2379,25 +2349,25 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F50">
-        <v>221</v>
+        <v>1306</v>
       </c>
       <c r="G50" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H50" t="s">
         <v>12</v>
@@ -2405,25 +2375,25 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F51">
-        <v>221</v>
+        <v>1306</v>
       </c>
       <c r="G51" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H51" t="s">
         <v>12</v>
@@ -2431,25 +2401,25 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F52">
-        <v>221</v>
+        <v>1306</v>
       </c>
       <c r="G52" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H52" t="s">
         <v>12</v>
@@ -2457,51 +2427,51 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D53">
-        <v>16</v>
+        <v>878</v>
       </c>
       <c r="E53">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="F53">
-        <v>221</v>
+        <v>1306</v>
       </c>
       <c r="G53" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H53" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F54">
-        <v>221</v>
+        <v>1306</v>
       </c>
       <c r="G54" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="H54" t="s">
         <v>12</v>
@@ -2509,25 +2479,25 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D55">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>221</v>
+        <v>1306</v>
       </c>
       <c r="G55" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="H55" t="s">
         <v>12</v>
@@ -2535,25 +2505,25 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56">
-        <v>221</v>
+        <v>1306</v>
       </c>
       <c r="G56" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H56" t="s">
         <v>12</v>
@@ -2561,77 +2531,77 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57" t="s">
         <v>36</v>
       </c>
       <c r="C57" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D57">
-        <v>9</v>
+        <v>338</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>191</v>
       </c>
       <c r="F57">
-        <v>221</v>
+        <v>1306</v>
       </c>
       <c r="G57" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H57" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D58">
-        <v>227</v>
+        <v>1</v>
       </c>
       <c r="E58">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>221</v>
+        <v>1306</v>
       </c>
       <c r="G58" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H58" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C59" t="s">
         <v>13</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F59">
-        <v>221</v>
+        <v>1306</v>
       </c>
       <c r="G59" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="H59" t="s">
         <v>12</v>
@@ -2639,25 +2609,25 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>221</v>
+        <v>1306</v>
       </c>
       <c r="G60" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="H60" t="s">
         <v>12</v>
@@ -2665,25 +2635,25 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F61">
-        <v>221</v>
+        <v>1306</v>
       </c>
       <c r="G61" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H61" t="s">
         <v>12</v>
@@ -2691,25 +2661,25 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>221</v>
+        <v>1306</v>
       </c>
       <c r="G62" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="H62" t="s">
         <v>12</v>
@@ -2717,25 +2687,25 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F63">
-        <v>221</v>
+        <v>1306</v>
       </c>
       <c r="G63" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="H63" t="s">
         <v>12</v>
@@ -2743,25 +2713,25 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C64" t="s">
         <v>10</v>
       </c>
       <c r="D64">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E64">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F64">
         <v>1306</v>
       </c>
       <c r="G64" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H64" t="s">
         <v>12</v>
@@ -2769,25 +2739,25 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C65" t="s">
         <v>13</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E65">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F65">
         <v>1306</v>
       </c>
       <c r="G65" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="H65" t="s">
         <v>12</v>
@@ -2795,25 +2765,25 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D66">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="E66">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F66">
         <v>1306</v>
       </c>
       <c r="G66" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H66" t="s">
         <v>12</v>
@@ -2821,25 +2791,25 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B67" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C67" t="s">
         <v>13</v>
       </c>
       <c r="D67">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E67">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F67">
         <v>1306</v>
       </c>
       <c r="G67" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="H67" t="s">
         <v>12</v>
@@ -2847,45 +2817,45 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B68" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D68">
-        <v>14</v>
+        <v>286</v>
       </c>
       <c r="E68">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="F68">
         <v>1306</v>
       </c>
       <c r="G68" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H68" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B69" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C69" t="s">
         <v>13</v>
       </c>
       <c r="D69">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F69">
         <v>1306</v>
@@ -2899,25 +2869,25 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C70" t="s">
         <v>10</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70">
         <v>1306</v>
       </c>
       <c r="G70" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H70" t="s">
         <v>12</v>
@@ -2925,25 +2895,25 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C71" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F71">
         <v>1306</v>
       </c>
       <c r="G71" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H71" t="s">
         <v>12</v>
@@ -2951,25 +2921,25 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B72" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C72" t="s">
         <v>10</v>
       </c>
       <c r="D72">
+        <v>6</v>
+      </c>
+      <c r="E72">
         <v>4</v>
-      </c>
-      <c r="E72">
-        <v>2</v>
       </c>
       <c r="F72">
         <v>1306</v>
       </c>
       <c r="G72" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H72" t="s">
         <v>12</v>
@@ -2977,911 +2947,27 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B73" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F73">
         <v>1306</v>
       </c>
       <c r="G73" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H73" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>67</v>
-      </c>
-      <c r="B74" t="s">
-        <v>21</v>
-      </c>
-      <c r="C74" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74">
-        <v>286</v>
-      </c>
-      <c r="E74">
-        <v>146</v>
-      </c>
-      <c r="F74">
-        <v>1306</v>
-      </c>
-      <c r="G74" t="s">
-        <v>76</v>
-      </c>
-      <c r="H74" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>67</v>
-      </c>
-      <c r="B75" t="s">
-        <v>21</v>
-      </c>
-      <c r="C75" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75">
-        <v>338</v>
-      </c>
-      <c r="E75">
-        <v>105</v>
-      </c>
-      <c r="F75">
-        <v>1306</v>
-      </c>
-      <c r="G75" t="s">
-        <v>77</v>
-      </c>
-      <c r="H75" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>67</v>
-      </c>
-      <c r="B76" t="s">
-        <v>44</v>
-      </c>
-      <c r="C76" t="s">
-        <v>15</v>
-      </c>
-      <c r="D76">
-        <v>10</v>
-      </c>
-      <c r="E76">
-        <v>8</v>
-      </c>
-      <c r="F76">
-        <v>1306</v>
-      </c>
-      <c r="G76" t="s">
-        <v>78</v>
-      </c>
-      <c r="H76" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>67</v>
-      </c>
-      <c r="B77" t="s">
-        <v>17</v>
-      </c>
-      <c r="C77" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77">
-        <v>4</v>
-      </c>
-      <c r="E77">
-        <v>2</v>
-      </c>
-      <c r="F77">
-        <v>1306</v>
-      </c>
-      <c r="G77" t="s">
-        <v>69</v>
-      </c>
-      <c r="H77" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>67</v>
-      </c>
-      <c r="B78" t="s">
-        <v>28</v>
-      </c>
-      <c r="C78" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78">
-        <v>17</v>
-      </c>
-      <c r="E78">
-        <v>8</v>
-      </c>
-      <c r="F78">
-        <v>1306</v>
-      </c>
-      <c r="G78" t="s">
-        <v>78</v>
-      </c>
-      <c r="H78" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>67</v>
-      </c>
-      <c r="B79" t="s">
-        <v>44</v>
-      </c>
-      <c r="C79" t="s">
-        <v>13</v>
-      </c>
-      <c r="D79">
-        <v>18</v>
-      </c>
-      <c r="E79">
-        <v>11</v>
-      </c>
-      <c r="F79">
-        <v>1306</v>
-      </c>
-      <c r="G79" t="s">
-        <v>79</v>
-      </c>
-      <c r="H79" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>67</v>
-      </c>
-      <c r="B80" t="s">
-        <v>36</v>
-      </c>
-      <c r="C80" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80">
-        <v>6</v>
-      </c>
-      <c r="E80">
-        <v>4</v>
-      </c>
-      <c r="F80">
-        <v>1306</v>
-      </c>
-      <c r="G80" t="s">
-        <v>73</v>
-      </c>
-      <c r="H80" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>67</v>
-      </c>
-      <c r="B81" t="s">
-        <v>53</v>
-      </c>
-      <c r="C81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D81">
-        <v>2</v>
-      </c>
-      <c r="E81">
-        <v>2</v>
-      </c>
-      <c r="F81">
-        <v>1306</v>
-      </c>
-      <c r="G81" t="s">
-        <v>69</v>
-      </c>
-      <c r="H81" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>67</v>
-      </c>
-      <c r="B82" t="s">
-        <v>36</v>
-      </c>
-      <c r="C82" t="s">
-        <v>15</v>
-      </c>
-      <c r="D82">
-        <v>33</v>
-      </c>
-      <c r="E82">
-        <v>9</v>
-      </c>
-      <c r="F82">
-        <v>1306</v>
-      </c>
-      <c r="G82" t="s">
-        <v>72</v>
-      </c>
-      <c r="H82" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>67</v>
-      </c>
-      <c r="B83" t="s">
-        <v>40</v>
-      </c>
-      <c r="C83" t="s">
-        <v>15</v>
-      </c>
-      <c r="D83">
-        <v>10</v>
-      </c>
-      <c r="E83">
-        <v>7</v>
-      </c>
-      <c r="F83">
-        <v>1306</v>
-      </c>
-      <c r="G83" t="s">
-        <v>68</v>
-      </c>
-      <c r="H83" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>67</v>
-      </c>
-      <c r="B84" t="s">
-        <v>47</v>
-      </c>
-      <c r="C84" t="s">
-        <v>13</v>
-      </c>
-      <c r="D84">
-        <v>36</v>
-      </c>
-      <c r="E84">
-        <v>14</v>
-      </c>
-      <c r="F84">
-        <v>1306</v>
-      </c>
-      <c r="G84" t="s">
-        <v>80</v>
-      </c>
-      <c r="H84" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>67</v>
-      </c>
-      <c r="B85" t="s">
-        <v>21</v>
-      </c>
-      <c r="C85" t="s">
-        <v>15</v>
-      </c>
-      <c r="D85">
-        <v>374</v>
-      </c>
-      <c r="E85">
-        <v>87</v>
-      </c>
-      <c r="F85">
-        <v>1306</v>
-      </c>
-      <c r="G85" t="s">
-        <v>81</v>
-      </c>
-      <c r="H85" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>67</v>
-      </c>
-      <c r="B86" t="s">
-        <v>9</v>
-      </c>
-      <c r="C86" t="s">
-        <v>13</v>
-      </c>
-      <c r="D86">
-        <v>2</v>
-      </c>
-      <c r="E86">
-        <v>2</v>
-      </c>
-      <c r="F86">
-        <v>1306</v>
-      </c>
-      <c r="G86" t="s">
-        <v>69</v>
-      </c>
-      <c r="H86" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>67</v>
-      </c>
-      <c r="B87" t="s">
-        <v>45</v>
-      </c>
-      <c r="C87" t="s">
-        <v>15</v>
-      </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-      <c r="F87">
-        <v>1306</v>
-      </c>
-      <c r="G87" t="s">
-        <v>74</v>
-      </c>
-      <c r="H87" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>67</v>
-      </c>
-      <c r="B88" t="s">
-        <v>49</v>
-      </c>
-      <c r="C88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D88">
-        <v>7</v>
-      </c>
-      <c r="E88">
-        <v>5</v>
-      </c>
-      <c r="F88">
-        <v>1306</v>
-      </c>
-      <c r="G88" t="s">
-        <v>82</v>
-      </c>
-      <c r="H88" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>67</v>
-      </c>
-      <c r="B89" t="s">
-        <v>49</v>
-      </c>
-      <c r="C89" t="s">
-        <v>15</v>
-      </c>
-      <c r="D89">
-        <v>2</v>
-      </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
-      <c r="F89">
-        <v>1306</v>
-      </c>
-      <c r="G89" t="s">
-        <v>74</v>
-      </c>
-      <c r="H89" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>67</v>
-      </c>
-      <c r="B90" t="s">
-        <v>16</v>
-      </c>
-      <c r="C90" t="s">
-        <v>15</v>
-      </c>
-      <c r="D90">
-        <v>2</v>
-      </c>
-      <c r="E90">
-        <v>2</v>
-      </c>
-      <c r="F90">
-        <v>1306</v>
-      </c>
-      <c r="G90" t="s">
-        <v>69</v>
-      </c>
-      <c r="H90" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>67</v>
-      </c>
-      <c r="B91" t="s">
-        <v>17</v>
-      </c>
-      <c r="C91" t="s">
-        <v>13</v>
-      </c>
-      <c r="D91">
-        <v>17</v>
-      </c>
-      <c r="E91">
-        <v>13</v>
-      </c>
-      <c r="F91">
-        <v>1306</v>
-      </c>
-      <c r="G91" t="s">
-        <v>83</v>
-      </c>
-      <c r="H91" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>67</v>
-      </c>
-      <c r="B92" t="s">
-        <v>17</v>
-      </c>
-      <c r="C92" t="s">
-        <v>15</v>
-      </c>
-      <c r="D92">
-        <v>5</v>
-      </c>
-      <c r="E92">
-        <v>5</v>
-      </c>
-      <c r="F92">
-        <v>1306</v>
-      </c>
-      <c r="G92" t="s">
-        <v>82</v>
-      </c>
-      <c r="H92" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>67</v>
-      </c>
-      <c r="B93" t="s">
-        <v>84</v>
-      </c>
-      <c r="C93" t="s">
-        <v>10</v>
-      </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-      <c r="E93">
-        <v>1</v>
-      </c>
-      <c r="F93">
-        <v>1306</v>
-      </c>
-      <c r="G93" t="s">
-        <v>74</v>
-      </c>
-      <c r="H93" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>67</v>
-      </c>
-      <c r="B94" t="s">
-        <v>47</v>
-      </c>
-      <c r="C94" t="s">
-        <v>15</v>
-      </c>
-      <c r="D94">
-        <v>23</v>
-      </c>
-      <c r="E94">
-        <v>11</v>
-      </c>
-      <c r="F94">
-        <v>1306</v>
-      </c>
-      <c r="G94" t="s">
-        <v>79</v>
-      </c>
-      <c r="H94" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>67</v>
-      </c>
-      <c r="B95" t="s">
-        <v>52</v>
-      </c>
-      <c r="C95" t="s">
-        <v>13</v>
-      </c>
-      <c r="D95">
-        <v>24</v>
-      </c>
-      <c r="E95">
-        <v>16</v>
-      </c>
-      <c r="F95">
-        <v>1306</v>
-      </c>
-      <c r="G95" t="s">
-        <v>85</v>
-      </c>
-      <c r="H95" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>67</v>
-      </c>
-      <c r="B96" t="s">
-        <v>86</v>
-      </c>
-      <c r="C96" t="s">
-        <v>13</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-      <c r="E96">
-        <v>1</v>
-      </c>
-      <c r="F96">
-        <v>1306</v>
-      </c>
-      <c r="G96" t="s">
-        <v>74</v>
-      </c>
-      <c r="H96" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>67</v>
-      </c>
-      <c r="B97" t="s">
-        <v>54</v>
-      </c>
-      <c r="C97" t="s">
-        <v>10</v>
-      </c>
-      <c r="D97">
-        <v>10</v>
-      </c>
-      <c r="E97">
-        <v>5</v>
-      </c>
-      <c r="F97">
-        <v>1306</v>
-      </c>
-      <c r="G97" t="s">
-        <v>82</v>
-      </c>
-      <c r="H97" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>67</v>
-      </c>
-      <c r="B98" t="s">
-        <v>54</v>
-      </c>
-      <c r="C98" t="s">
-        <v>13</v>
-      </c>
-      <c r="D98">
-        <v>5</v>
-      </c>
-      <c r="E98">
-        <v>3</v>
-      </c>
-      <c r="F98">
-        <v>1306</v>
-      </c>
-      <c r="G98" t="s">
-        <v>75</v>
-      </c>
-      <c r="H98" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>67</v>
-      </c>
-      <c r="B99" t="s">
-        <v>45</v>
-      </c>
-      <c r="C99" t="s">
-        <v>13</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-      <c r="E99">
-        <v>1</v>
-      </c>
-      <c r="F99">
-        <v>1306</v>
-      </c>
-      <c r="G99" t="s">
-        <v>74</v>
-      </c>
-      <c r="H99" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>67</v>
-      </c>
-      <c r="B100" t="s">
-        <v>44</v>
-      </c>
-      <c r="C100" t="s">
-        <v>10</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-      <c r="E100">
-        <v>1</v>
-      </c>
-      <c r="F100">
-        <v>1306</v>
-      </c>
-      <c r="G100" t="s">
-        <v>74</v>
-      </c>
-      <c r="H100" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>67</v>
-      </c>
-      <c r="B101" t="s">
-        <v>32</v>
-      </c>
-      <c r="C101" t="s">
-        <v>15</v>
-      </c>
-      <c r="D101">
-        <v>332</v>
-      </c>
-      <c r="E101">
-        <v>135</v>
-      </c>
-      <c r="F101">
-        <v>1306</v>
-      </c>
-      <c r="G101" t="s">
-        <v>87</v>
-      </c>
-      <c r="H101" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>67</v>
-      </c>
-      <c r="B102" t="s">
-        <v>27</v>
-      </c>
-      <c r="C102" t="s">
-        <v>13</v>
-      </c>
-      <c r="D102">
-        <v>18</v>
-      </c>
-      <c r="E102">
-        <v>1</v>
-      </c>
-      <c r="F102">
-        <v>1306</v>
-      </c>
-      <c r="G102" t="s">
-        <v>74</v>
-      </c>
-      <c r="H102" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>67</v>
-      </c>
-      <c r="B103" t="s">
-        <v>32</v>
-      </c>
-      <c r="C103" t="s">
-        <v>10</v>
-      </c>
-      <c r="D103">
-        <v>338</v>
-      </c>
-      <c r="E103">
-        <v>191</v>
-      </c>
-      <c r="F103">
-        <v>1306</v>
-      </c>
-      <c r="G103" t="s">
-        <v>88</v>
-      </c>
-      <c r="H103" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>67</v>
-      </c>
-      <c r="B104" t="s">
-        <v>32</v>
-      </c>
-      <c r="C104" t="s">
-        <v>13</v>
-      </c>
-      <c r="D104">
-        <v>878</v>
-      </c>
-      <c r="E104">
-        <v>177</v>
-      </c>
-      <c r="F104">
-        <v>1306</v>
-      </c>
-      <c r="G104" t="s">
-        <v>89</v>
-      </c>
-      <c r="H104" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>67</v>
-      </c>
-      <c r="B105" t="s">
-        <v>47</v>
-      </c>
-      <c r="C105" t="s">
-        <v>10</v>
-      </c>
-      <c r="D105">
-        <v>22</v>
-      </c>
-      <c r="E105">
-        <v>11</v>
-      </c>
-      <c r="F105">
-        <v>1306</v>
-      </c>
-      <c r="G105" t="s">
-        <v>79</v>
-      </c>
-      <c r="H105" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>67</v>
-      </c>
-      <c r="B106" t="s">
-        <v>52</v>
-      </c>
-      <c r="C106" t="s">
-        <v>15</v>
-      </c>
-      <c r="D106">
-        <v>4</v>
-      </c>
-      <c r="E106">
-        <v>3</v>
-      </c>
-      <c r="F106">
-        <v>1306</v>
-      </c>
-      <c r="G106" t="s">
-        <v>75</v>
-      </c>
-      <c r="H106" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>67</v>
-      </c>
-      <c r="B107" t="s">
-        <v>54</v>
-      </c>
-      <c r="C107" t="s">
-        <v>15</v>
-      </c>
-      <c r="D107">
-        <v>25</v>
-      </c>
-      <c r="E107">
-        <v>7</v>
-      </c>
-      <c r="F107">
-        <v>1306</v>
-      </c>
-      <c r="G107" t="s">
-        <v>68</v>
-      </c>
-      <c r="H107" t="s">
         <v>12</v>
       </c>
     </row>
